--- a/Libraries/Event/sm_car_database_Driver.xlsx
+++ b/Libraries/Event/sm_car_database_Driver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47974D1-0FDE-4AA7-83DD-C066944068FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0772570-4D2E-4063-A308-78E79A081723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11430" tabRatio="843" firstSheet="1" activeTab="6" xr2:uid="{87770AAC-9142-4F0B-A47A-9193DA8A8904}"/>
+    <workbookView xWindow="6645" yWindow="2955" windowWidth="17280" windowHeight="10215" tabRatio="889" firstSheet="17" activeTab="23" xr2:uid="{87770AAC-9142-4F0B-A47A-9193DA8A8904}"/>
   </bookViews>
   <sheets>
     <sheet name="Mallory_HambaLG" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,9 @@
     <sheet name="Str_HambaLG" sheetId="13" r:id="rId19"/>
     <sheet name="Str_Hamba" sheetId="14" r:id="rId20"/>
     <sheet name="Str_Makhulu" sheetId="15" r:id="rId21"/>
+    <sheet name="FTP75_HambaLG" sheetId="25" r:id="rId22"/>
+    <sheet name="FTP75_Hamba" sheetId="26" r:id="rId23"/>
+    <sheet name="FTP75_Makhulu" sheetId="27" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="61">
   <si>
     <t>rad/s</t>
   </si>
@@ -208,6 +213,33 @@
   <si>
     <t>MCity</t>
   </si>
+  <si>
+    <t>Ki</t>
+  </si>
+  <si>
+    <t>Kp</t>
+  </si>
+  <si>
+    <t>Integral gain longitudinal driver</t>
+  </si>
+  <si>
+    <t>Proportional gain longitudinal driver</t>
+  </si>
+  <si>
+    <t>DriveCycle_FTP75</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
 </sst>
 </file>
 
@@ -277,7 +309,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -312,12 +344,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="135">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1523,18 +1619,18 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1554,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1683,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -1620,7 +1716,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1652,7 +1748,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -1682,7 +1778,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -1719,7 +1815,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -1752,7 +1848,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -1782,7 +1878,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -1810,7 +1906,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -1827,7 +1923,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -1844,7 +1940,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -1861,7 +1957,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -1878,7 +1974,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -1895,7 +1991,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -1924,7 +2020,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1949,7 +2045,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -1970,7 +2066,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -1983,85 +2079,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="125" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="123" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="122" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="120" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2084,18 +2180,18 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2115,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -2148,7 +2244,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2181,7 +2277,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2213,7 +2309,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -2243,7 +2339,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -2280,7 +2376,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -2313,7 +2409,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -2343,7 +2439,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -2371,7 +2467,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -2388,7 +2484,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -2405,7 +2501,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -2422,7 +2518,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -2439,7 +2535,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -2456,7 +2552,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -2485,7 +2581,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -2510,7 +2606,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -2531,7 +2627,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -2544,85 +2640,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2645,18 +2741,18 @@
       <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -2676,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2805,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -2742,7 +2838,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2774,7 +2870,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -2804,7 +2900,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -2841,7 +2937,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -2874,7 +2970,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -2904,7 +3000,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -2932,7 +3028,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -2949,7 +3045,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -2966,7 +3062,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -2983,7 +3079,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -3000,7 +3096,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -3017,7 +3113,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -3046,7 +3142,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -3071,7 +3167,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -3092,7 +3188,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -3105,85 +3201,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3206,18 +3302,18 @@
       <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3237,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -3270,7 +3366,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +3399,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -3335,7 +3431,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -3365,7 +3461,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -3402,7 +3498,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -3435,7 +3531,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -3465,7 +3561,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -3493,7 +3589,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -3510,7 +3606,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -3527,7 +3623,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -3544,7 +3640,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -3561,7 +3657,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -3578,7 +3674,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -3607,7 +3703,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -3632,7 +3728,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -3653,7 +3749,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -3666,85 +3762,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3764,21 +3860,21 @@
       <selection activeCell="M35" sqref="M35"/>
       <selection pane="topRight" activeCell="M35" sqref="M35"/>
       <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3798,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +3927,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -3864,7 +3960,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -3896,7 +3992,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -3926,7 +4022,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -3963,7 +4059,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -3996,7 +4092,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -4026,7 +4122,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -4054,12 +4150,12 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10" t="s">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
@@ -4071,12 +4167,12 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
@@ -4088,12 +4184,12 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12" t="s">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
@@ -4105,12 +4201,12 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13" t="s">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13"/>
+      <c r="C13" s="7"/>
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -4122,12 +4218,12 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14" t="s">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C14"/>
+      <c r="C14" s="7"/>
       <c r="D14" t="s">
         <v>29</v>
       </c>
@@ -4139,10 +4235,12 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="C15" s="7"/>
       <c r="D15" t="s">
         <v>31</v>
       </c>
@@ -4168,10 +4266,12 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="C16" s="7"/>
       <c r="D16" t="s">
         <v>33</v>
       </c>
@@ -4193,10 +4293,12 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="C17" s="7"/>
       <c r="D17" t="s">
         <v>35</v>
       </c>
@@ -4214,10 +4316,12 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="C18" s="7"/>
       <c r="D18" t="s">
         <v>35</v>
       </c>
@@ -4227,85 +4331,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4328,18 +4432,18 @@
       <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4359,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -4392,7 +4496,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -4425,7 +4529,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -4457,7 +4561,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -4487,7 +4591,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -4524,7 +4628,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -4557,7 +4661,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -4587,7 +4691,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -4615,7 +4719,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -4632,7 +4736,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -4649,7 +4753,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -4666,7 +4770,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -4683,7 +4787,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -4700,7 +4804,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -4729,7 +4833,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -4754,7 +4858,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -4775,7 +4879,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -4788,85 +4892,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4889,18 +4993,18 @@
       <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4920,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -4953,7 +5057,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -4986,7 +5090,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -5018,7 +5122,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -5048,7 +5152,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -5085,7 +5189,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -5118,7 +5222,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -5148,7 +5252,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -5176,7 +5280,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -5193,7 +5297,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5210,7 +5314,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -5227,7 +5331,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -5244,7 +5348,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -5261,7 +5365,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -5290,7 +5394,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -5315,7 +5419,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -5336,7 +5440,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -5349,85 +5453,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5450,18 +5554,18 @@
       <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -5481,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -5514,7 +5618,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -5547,7 +5651,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -5579,7 +5683,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -5609,7 +5713,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -5646,7 +5750,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -5679,7 +5783,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -5709,7 +5813,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -5737,7 +5841,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -5754,7 +5858,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5771,7 +5875,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -5788,7 +5892,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -5805,7 +5909,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -5822,7 +5926,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -5851,7 +5955,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -5876,7 +5980,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -5897,7 +6001,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -5910,85 +6014,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6011,18 +6115,18 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6042,7 +6146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -6075,7 +6179,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -6108,7 +6212,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -6140,7 +6244,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -6170,7 +6274,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -6207,7 +6311,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -6240,7 +6344,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -6270,7 +6374,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -6298,7 +6402,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -6315,7 +6419,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -6332,7 +6436,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -6349,7 +6453,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -6366,7 +6470,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -6383,7 +6487,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -6412,7 +6516,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -6437,7 +6541,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -6458,7 +6562,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -6471,85 +6575,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6572,18 +6676,18 @@
       <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -6603,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -6636,7 +6740,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -6669,7 +6773,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -6701,7 +6805,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -6731,7 +6835,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -6768,7 +6872,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -6801,7 +6905,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -6831,7 +6935,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -6859,7 +6963,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -6876,7 +6980,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -6893,7 +6997,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -6910,7 +7014,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -6927,7 +7031,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -6944,7 +7048,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -6973,7 +7077,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -6998,7 +7102,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -7019,7 +7123,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -7032,85 +7136,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7133,18 +7237,18 @@
       <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7164,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -7197,7 +7301,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -7230,7 +7334,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -7262,7 +7366,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -7292,7 +7396,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -7329,7 +7433,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -7362,7 +7466,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -7392,7 +7496,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -7420,7 +7524,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -7437,7 +7541,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -7454,7 +7558,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -7471,7 +7575,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -7488,7 +7592,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -7505,7 +7609,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -7534,7 +7638,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -7559,7 +7663,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -7580,7 +7684,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -7593,85 +7697,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7694,18 +7798,18 @@
       <selection pane="bottomRight" activeCell="H6" sqref="H6:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -7725,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -7758,7 +7862,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -7791,7 +7895,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -7823,7 +7927,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -7853,7 +7957,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -7890,7 +7994,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -7923,7 +8027,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -7953,7 +8057,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -7981,7 +8085,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -7998,7 +8102,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -8015,7 +8119,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -8032,7 +8136,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -8049,7 +8153,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -8066,7 +8170,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -8095,7 +8199,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -8120,7 +8224,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -8141,7 +8245,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -8154,85 +8258,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="117" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8255,18 +8359,18 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8286,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -8319,7 +8423,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -8352,7 +8456,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -8384,7 +8488,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -8414,7 +8518,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -8451,7 +8555,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -8484,7 +8588,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -8514,7 +8618,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -8542,7 +8646,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -8559,7 +8663,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -8576,7 +8680,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -8593,7 +8697,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -8610,7 +8714,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -8627,7 +8731,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -8656,7 +8760,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -8681,7 +8785,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -8702,7 +8806,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -8715,85 +8819,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8816,18 +8920,18 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8847,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -8880,7 +8984,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -8913,7 +9017,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -8945,7 +9049,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -8975,7 +9079,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -9012,7 +9116,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -9045,7 +9149,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -9075,7 +9179,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -9103,7 +9207,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -9120,7 +9224,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -9137,7 +9241,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -9154,7 +9258,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -9171,7 +9275,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -9188,7 +9292,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -9217,7 +9321,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -9242,7 +9346,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -9263,7 +9367,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -9276,85 +9380,835 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D73856-57BF-43D4-AF71-247688B704AE}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="3"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="18">
+        <f>2*PI()*20</f>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D7F364-89D9-4BAA-B99D-5B952DB6548F}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="3"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="18">
+        <f>2*PI()*20</f>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FAE147-41AA-4B7D-B476-A5629690F5D4}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="3"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="18">
+        <f>2*PI()*20</f>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9377,18 +10231,18 @@
       <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -9408,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -9441,7 +10295,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -9474,7 +10328,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -9506,7 +10360,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -9536,7 +10390,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -9573,7 +10427,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -9606,7 +10460,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -9636,7 +10490,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -9664,7 +10518,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -9681,7 +10535,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -9698,7 +10552,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -9715,7 +10569,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -9732,7 +10586,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -9749,7 +10603,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -9778,7 +10632,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -9803,7 +10657,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -9824,7 +10678,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -9837,85 +10691,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="112" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9938,18 +10792,18 @@
       <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -9969,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -10002,7 +10856,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -10035,7 +10889,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -10067,7 +10921,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -10097,7 +10951,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -10134,7 +10988,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -10167,7 +11021,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -10197,7 +11051,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -10225,7 +11079,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -10242,7 +11096,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -10259,7 +11113,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -10276,7 +11130,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -10293,7 +11147,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -10310,7 +11164,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -10339,7 +11193,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -10364,7 +11218,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -10385,7 +11239,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -10398,85 +11252,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10499,18 +11353,18 @@
       <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -10530,7 +11384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -10563,7 +11417,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -10596,7 +11450,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -10628,7 +11482,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -10658,7 +11512,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -10695,7 +11549,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -10728,7 +11582,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -10758,7 +11612,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -10786,7 +11640,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -10803,7 +11657,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -10820,7 +11674,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -10837,7 +11691,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -10854,7 +11708,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -10871,7 +11725,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -10900,7 +11754,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -10925,7 +11779,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -10946,7 +11800,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -10959,85 +11813,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="101" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="100" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11060,18 +11914,18 @@
       <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -11091,7 +11945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -11124,7 +11978,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -11157,7 +12011,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -11189,7 +12043,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -11219,7 +12073,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -11256,7 +12110,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -11289,7 +12143,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -11319,7 +12173,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -11347,7 +12201,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -11364,7 +12218,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -11381,7 +12235,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -11398,7 +12252,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -11415,7 +12269,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -11432,7 +12286,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -11461,7 +12315,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -11486,7 +12340,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -11507,7 +12361,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -11520,85 +12374,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11613,7 +12467,7 @@
   </sheetPr>
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M35" sqref="M35"/>
       <selection pane="topRight" activeCell="M35" sqref="M35"/>
@@ -11621,18 +12475,18 @@
       <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -11652,7 +12506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -11685,7 +12539,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -11718,7 +12572,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -11750,7 +12604,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -11780,7 +12634,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -11817,7 +12671,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -11850,7 +12704,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -11880,7 +12734,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -11908,7 +12762,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -11925,7 +12779,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -11942,7 +12796,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -11959,7 +12813,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -11976,7 +12830,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -11993,7 +12847,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -12022,7 +12876,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -12047,7 +12901,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -12068,7 +12922,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -12081,85 +12935,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12182,18 +13036,18 @@
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -12213,7 +13067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -12246,7 +13100,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -12279,7 +13133,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -12311,7 +13165,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -12341,7 +13195,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -12378,7 +13232,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -12411,7 +13265,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -12441,7 +13295,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -12469,7 +13323,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -12486,7 +13340,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -12503,7 +13357,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -12520,7 +13374,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -12537,7 +13391,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -12554,7 +13408,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -12583,7 +13437,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -12608,7 +13462,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -12629,7 +13483,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -12642,85 +13496,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="88" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12743,18 +13597,18 @@
       <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -12774,7 +13628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -12807,7 +13661,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -12840,7 +13694,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -12872,7 +13726,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>13</v>
@@ -12902,7 +13756,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
         <v>14</v>
@@ -12939,7 +13793,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
         <v>16</v>
@@ -12972,7 +13826,7 @@
       <c r="Y7"/>
       <c r="Z7"/>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7" t="s">
         <v>18</v>
@@ -13002,7 +13856,7 @@
       <c r="U8" s="1"/>
       <c r="V8"/>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
@@ -13030,7 +13884,7 @@
       <c r="P9"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>23</v>
@@ -13047,7 +13901,7 @@
       </c>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -13064,7 +13918,7 @@
       </c>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>10</v>
@@ -13081,7 +13935,7 @@
       </c>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>27</v>
@@ -13098,7 +13952,7 @@
       </c>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>28</v>
@@ -13115,7 +13969,7 @@
       </c>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -13144,7 +13998,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -13169,7 +14023,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -13190,7 +14044,7 @@
       <c r="P17" s="2"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -13203,85 +14057,85 @@
       </c>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U35" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Event/sm_car_database_Driver.xlsx
+++ b/Libraries/Event/sm_car_database_Driver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0772570-4D2E-4063-A308-78E79A081723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F186F8DB-AF44-470C-81AA-44752FE8998E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="2955" windowWidth="17280" windowHeight="10215" tabRatio="889" firstSheet="17" activeTab="23" xr2:uid="{87770AAC-9142-4F0B-A47A-9193DA8A8904}"/>
+    <workbookView xWindow="1200" yWindow="852" windowWidth="13008" windowHeight="10152" tabRatio="889" firstSheet="18" activeTab="21" xr2:uid="{87770AAC-9142-4F0B-A47A-9193DA8A8904}"/>
   </bookViews>
   <sheets>
     <sheet name="Mallory_HambaLG" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,26 @@
     <sheet name="CRG_Nurburgring_N_Hamba" sheetId="20" r:id="rId9"/>
     <sheet name="CRG_Suzuka_Hamba" sheetId="22" r:id="rId10"/>
     <sheet name="CRG_Mallory_Hamba" sheetId="19" r:id="rId11"/>
-    <sheet name="CRG_Pikes_Peak_Hamba" sheetId="21" r:id="rId12"/>
-    <sheet name="DLC_HambaLG" sheetId="6" r:id="rId13"/>
-    <sheet name="DLC_Hamba" sheetId="7" r:id="rId14"/>
-    <sheet name="DLC_Makhulu" sheetId="10" r:id="rId15"/>
-    <sheet name="Skidpad_HambaLG" sheetId="17" r:id="rId16"/>
-    <sheet name="Skidpad_Hamba" sheetId="16" r:id="rId17"/>
-    <sheet name="Skidpad_Makhulu" sheetId="18" r:id="rId18"/>
-    <sheet name="Str_HambaLG" sheetId="13" r:id="rId19"/>
-    <sheet name="Str_Hamba" sheetId="14" r:id="rId20"/>
-    <sheet name="Str_Makhulu" sheetId="15" r:id="rId21"/>
-    <sheet name="FTP75_HambaLG" sheetId="25" r:id="rId22"/>
-    <sheet name="FTP75_Hamba" sheetId="26" r:id="rId23"/>
-    <sheet name="FTP75_Makhulu" sheetId="27" r:id="rId24"/>
+    <sheet name="CRG_Custom" sheetId="31" r:id="rId12"/>
+    <sheet name="CRG_Pikes_Peak_Hamba" sheetId="21" r:id="rId13"/>
+    <sheet name="DLC_HambaLG" sheetId="6" r:id="rId14"/>
+    <sheet name="DLC_Hamba" sheetId="7" r:id="rId15"/>
+    <sheet name="DLC_Makhulu" sheetId="10" r:id="rId16"/>
+    <sheet name="Skidpad_HambaLG" sheetId="17" r:id="rId17"/>
+    <sheet name="Skidpad_Hamba" sheetId="16" r:id="rId18"/>
+    <sheet name="Skidpad_Makhulu" sheetId="18" r:id="rId19"/>
+    <sheet name="RadiusCL_HambaLG" sheetId="32" r:id="rId20"/>
+    <sheet name="RadiusCL_Hamba" sheetId="33" r:id="rId21"/>
+    <sheet name="RadiusCL_Makhulu" sheetId="34" r:id="rId22"/>
+    <sheet name="Str_HambaLG" sheetId="13" r:id="rId23"/>
+    <sheet name="Str_Hamba" sheetId="14" r:id="rId24"/>
+    <sheet name="Str_Makhulu" sheetId="15" r:id="rId25"/>
+    <sheet name="FTP75_HambaLG" sheetId="25" r:id="rId26"/>
+    <sheet name="FTP75_Hamba" sheetId="26" r:id="rId27"/>
+    <sheet name="FTP75_Makhulu" sheetId="27" r:id="rId28"/>
+    <sheet name="UrbanCycle1_HambaLG" sheetId="28" r:id="rId29"/>
+    <sheet name="UrbanCycle1_Hamba" sheetId="29" r:id="rId30"/>
+    <sheet name="UrbanCycle1_Makhulu" sheetId="30" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="64">
   <si>
     <t>rad/s</t>
   </si>
@@ -240,6 +247,15 @@
   <si>
     <t>Hz</t>
   </si>
+  <si>
+    <t>DriveCycle_UrbanCycle1</t>
+  </si>
+  <si>
+    <t>CRG_Custom</t>
+  </si>
+  <si>
+    <t>Constant_Radius_CL</t>
+  </si>
 </sst>
 </file>
 
@@ -309,7 +325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -345,12 +361,254 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="135">
+  <dxfs count="168">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2132,32 +2390,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="134" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="133" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="131" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2693,32 +2951,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3254,32 +3512,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="74" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3288,6 +3546,567 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C5560B-2686-4582-BFD7-2210723D3CF3}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" s="1"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" s="1"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6" s="1"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6">
+        <v>80</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" s="1"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="16">
+        <f>2*PI()*50</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" s="3"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" s="1"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="16">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="3"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10">
+        <v>17297</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:C7 B8 A8:A9">
+    <cfRule type="cellIs" dxfId="101" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="100" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="cellIs" dxfId="99" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="98" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="97" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="cellIs" dxfId="96" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24919A65-0CA2-414C-8049-302FA5DB3433}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -3815,32 +4634,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="68" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3848,7 +4667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F567C822-749C-412E-BF96-0F073B4A9DAE}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -4384,32 +5203,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="61" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4417,7 +5236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA27FF2-149D-4915-8E2B-EA094988B469}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -4945,32 +5764,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="56" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="55" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4978,7 +5797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD959DC-12D8-4BFA-8F52-866E2FEE629D}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -5506,32 +6325,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5539,7 +6358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA9B50F-EB1D-42F6-8596-0AE27FD43915}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -6067,32 +6886,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="43" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6100,7 +6919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F22C8C-FD12-4E89-A0A8-32924D00C83A}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -6628,32 +7447,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6661,7 +7480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75C1912-1029-4E76-B073-455C0298204A}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -7189,593 +8008,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD4ED6-7B9B-46BE-B492-50BF3D4DFCD6}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:AA35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="M35" sqref="M35"/>
-      <selection pane="topRight" activeCell="M35" sqref="M35"/>
-      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3" s="1"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="14">
-        <v>3</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4" s="1"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5" s="1"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6">
-        <v>3.57</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6" s="1"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6">
-        <v>80</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7" s="1"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-    </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="H8" s="16">
-        <f>2*PI()*50</f>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" s="3"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8" s="1"/>
-      <c r="V8"/>
-    </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="H9" s="16">
-        <v>2550</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9" s="3"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10">
-        <v>17297</v>
-      </c>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13">
-        <v>200</v>
-      </c>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14">
-        <v>2.5</v>
-      </c>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="15">
-        <v>9.8066499999999994</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="15">
-        <f>2*PI()*5</f>
-        <v>31.415926535897931</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="15">
-        <f>2*PI()*5</f>
-        <v>31.415926535897931</v>
-      </c>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
-      <c r="U33" s="1"/>
-    </row>
-    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
-      <c r="U34" s="1"/>
-    </row>
-    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
-      <c r="U35" s="1"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8311,32 +8569,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="128" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="126" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="125" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="124" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8345,6 +8603,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B50D3F-CCFE-4E8F-A1EB-06F199148344}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="23">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="23">
+        <v>3.57</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="23">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="18">
+        <f>2*PI()*50</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="H9" s="18">
+        <v>2550</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>17297</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:C7 B8 A8:A9">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59256037-4161-463D-B30D-94370CAEA18C}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="H3" sqref="H3"/>
+      <selection pane="topRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="23">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="23">
+        <v>2.8239999999999998</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="23">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="18">
+        <f>2*PI()*50</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="H9" s="18">
+        <v>1500</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>17297</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:C7 B8 A8:A9">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB079F7-2FE4-4E50-A2D5-2C56A023F64D}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:U35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22">
+        <v>3</v>
+      </c>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="23">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="23">
+        <v>6.7816000000000001</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="23">
+        <v>80</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="H8" s="18">
+        <f>2*PI()*50</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="H9" s="18">
+        <v>2550</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>17297</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:C7 B8 A8:A9">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD4ED6-7B9B-46BE-B492-50BF3D4DFCD6}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="14">
+        <v>3</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" s="1"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" s="1"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6" s="1"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6">
+        <v>80</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" s="1"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="16">
+        <f>2*PI()*50</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8" s="3"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" s="1"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="H9" s="16">
+        <v>2550</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="3"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10">
+        <v>17297</v>
+      </c>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14">
+        <v>2.5</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="15">
+        <v>9.8066499999999994</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="15">
+        <f>2*PI()*5</f>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U35" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:C7 B8 A8:A9">
+    <cfRule type="cellIs" dxfId="53" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027B20D6-2BBB-48B2-8BFD-E084F702B920}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -8872,32 +10816,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8905,7 +10849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE29C2-9856-4376-B819-E5383B7B41B1}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -9433,32 +11377,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9466,7 +11410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D73856-57BF-43D4-AF71-247688B704AE}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -9698,17 +11642,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9716,7 +11660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D7F364-89D9-4BAA-B99D-5B952DB6548F}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -9948,17 +11892,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9966,14 +11910,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FAE147-41AA-4B7D-B476-A5629690F5D4}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M35" sqref="M35"/>
       <selection pane="topRight" activeCell="M35" sqref="M35"/>
@@ -10198,17 +12142,267 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B4">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88C32E3-E030-41F3-89E9-55E181619004}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="3"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="18">
+        <f>2*PI()*20</f>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10744,32 +12938,532 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="121" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="119" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="117" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017A0C96-9492-4C12-8899-089B54D76808}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="3"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="18">
+        <f>2*PI()*20</f>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990D917E-2C74-4183-ABA6-A929993A161D}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="M35" sqref="M35"/>
+      <selection pane="topRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="T41" sqref="T41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="1"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="3"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18">
+        <v>10</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="18">
+        <f>2*PI()*20</f>
+        <v>125.66370614359172</v>
+      </c>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="21:21" x14ac:dyDescent="0.3">
+      <c r="U22" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:B4">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11305,32 +13999,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="116" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="114" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="112" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11866,32 +14560,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12427,32 +15121,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="104" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="102" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12988,32 +15682,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13549,32 +16243,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="91" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="89" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="87" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14110,32 +16804,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:C7 B8 A8:A9">
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:B9">
-    <cfRule type="cellIs" dxfId="84" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="83" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
